--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Plxdc1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.86163013661475</v>
+        <v>11.03759266666667</v>
       </c>
       <c r="H2">
-        <v>6.86163013661475</v>
+        <v>33.11277800000001</v>
       </c>
       <c r="I2">
-        <v>0.01175455281729063</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="J2">
-        <v>0.01175455281729063</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.25060678235267</v>
+        <v>0.668834</v>
       </c>
       <c r="N2">
-        <v>5.25060678235267</v>
+        <v>2.006502</v>
       </c>
       <c r="O2">
-        <v>0.500568860057849</v>
+        <v>0.05455265737243289</v>
       </c>
       <c r="P2">
-        <v>0.500568860057849</v>
+        <v>0.05455265737243289</v>
       </c>
       <c r="Q2">
-        <v>36.02772173330488</v>
+        <v>7.382317253617335</v>
       </c>
       <c r="R2">
-        <v>36.02772173330488</v>
+        <v>66.44085528255602</v>
       </c>
       <c r="S2">
-        <v>0.00588396310424095</v>
+        <v>0.001018702318802724</v>
       </c>
       <c r="T2">
-        <v>0.00588396310424095</v>
+        <v>0.001018702318802725</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.86163013661475</v>
+        <v>11.03759266666667</v>
       </c>
       <c r="H3">
-        <v>6.86163013661475</v>
+        <v>33.11277800000001</v>
       </c>
       <c r="I3">
-        <v>0.01175455281729063</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="J3">
-        <v>0.01175455281729063</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.93137354218707</v>
+        <v>0.1349966666666667</v>
       </c>
       <c r="N3">
-        <v>3.93137354218707</v>
+        <v>0.40499</v>
       </c>
       <c r="O3">
-        <v>0.37479919065514</v>
+        <v>0.0110108441004602</v>
       </c>
       <c r="P3">
-        <v>0.37479919065514</v>
+        <v>0.0110108441004602</v>
       </c>
       <c r="Q3">
-        <v>26.97563117536068</v>
+        <v>1.490038218024445</v>
       </c>
       <c r="R3">
-        <v>26.97563117536068</v>
+        <v>13.41034396222</v>
       </c>
       <c r="S3">
-        <v>0.004405596882433626</v>
+        <v>0.0002056136759853294</v>
       </c>
       <c r="T3">
-        <v>0.004405596882433626</v>
+        <v>0.0002056136759853294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.86163013661475</v>
+        <v>11.03759266666667</v>
       </c>
       <c r="H4">
-        <v>6.86163013661475</v>
+        <v>33.11277800000001</v>
       </c>
       <c r="I4">
-        <v>0.01175455281729063</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="J4">
-        <v>0.01175455281729063</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.30729937565151</v>
+        <v>5.254872</v>
       </c>
       <c r="N4">
-        <v>1.30729937565151</v>
+        <v>15.764616</v>
       </c>
       <c r="O4">
-        <v>0.124631949287011</v>
+        <v>0.4286074448248611</v>
       </c>
       <c r="P4">
-        <v>0.124631949287011</v>
+        <v>0.4286074448248611</v>
       </c>
       <c r="Q4">
-        <v>8.970204793548048</v>
+        <v>58.00113665147201</v>
       </c>
       <c r="R4">
-        <v>8.970204793548048</v>
+        <v>522.0102298632481</v>
       </c>
       <c r="S4">
-        <v>0.001464992830616059</v>
+        <v>0.008003705390891477</v>
       </c>
       <c r="T4">
-        <v>0.001464992830616059</v>
+        <v>0.008003705390891477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>556.3019864208979</v>
+        <v>11.03759266666667</v>
       </c>
       <c r="H5">
-        <v>556.3019864208979</v>
+        <v>33.11277800000001</v>
       </c>
       <c r="I5">
-        <v>0.9529923577277308</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="J5">
-        <v>0.9529923577277308</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.25060678235267</v>
+        <v>4.640423333333334</v>
       </c>
       <c r="N5">
-        <v>5.25060678235267</v>
+        <v>13.92127</v>
       </c>
       <c r="O5">
-        <v>0.500568860057849</v>
+        <v>0.378490663103814</v>
       </c>
       <c r="P5">
-        <v>0.500568860057849</v>
+        <v>0.3784906631038139</v>
       </c>
       <c r="Q5">
-        <v>2920.92298293783</v>
+        <v>51.2191025542289</v>
       </c>
       <c r="R5">
-        <v>2920.92298293783</v>
+        <v>460.9719229880601</v>
       </c>
       <c r="S5">
-        <v>0.477038298151612</v>
+        <v>0.007067837475207502</v>
       </c>
       <c r="T5">
-        <v>0.477038298151612</v>
+        <v>0.007067837475207503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>556.3019864208979</v>
+        <v>11.03759266666667</v>
       </c>
       <c r="H6">
-        <v>556.3019864208979</v>
+        <v>33.11277800000001</v>
       </c>
       <c r="I6">
-        <v>0.9529923577277308</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="J6">
-        <v>0.9529923577277308</v>
+        <v>0.01867374327611592</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.93137354218707</v>
+        <v>1.561211666666667</v>
       </c>
       <c r="N6">
-        <v>3.93137354218707</v>
+        <v>4.683635</v>
       </c>
       <c r="O6">
-        <v>0.37479919065514</v>
+        <v>0.1273383905984319</v>
       </c>
       <c r="P6">
-        <v>0.37479919065514</v>
+        <v>0.1273383905984319</v>
       </c>
       <c r="Q6">
-        <v>2187.030910881229</v>
+        <v>17.23201844311445</v>
       </c>
       <c r="R6">
-        <v>2187.030910881229</v>
+        <v>155.08816598803</v>
       </c>
       <c r="S6">
-        <v>0.3571807643768872</v>
+        <v>0.00237788441522889</v>
       </c>
       <c r="T6">
-        <v>0.3571807643768872</v>
+        <v>0.00237788441522889</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,433 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>556.3019864208979</v>
+        <v>556.449117</v>
       </c>
       <c r="H7">
-        <v>556.3019864208979</v>
+        <v>1669.347351</v>
       </c>
       <c r="I7">
-        <v>0.9529923577277308</v>
+        <v>0.9414179586876754</v>
       </c>
       <c r="J7">
-        <v>0.9529923577277308</v>
+        <v>0.9414179586876756</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.30729937565151</v>
+        <v>0.668834</v>
       </c>
       <c r="N7">
-        <v>1.30729937565151</v>
+        <v>2.006502</v>
       </c>
       <c r="O7">
-        <v>0.124631949287011</v>
+        <v>0.05455265737243289</v>
       </c>
       <c r="P7">
-        <v>0.124631949287011</v>
+        <v>0.05455265737243289</v>
       </c>
       <c r="Q7">
-        <v>727.2532395217347</v>
+        <v>372.172088719578</v>
       </c>
       <c r="R7">
-        <v>727.2532395217347</v>
+        <v>3349.548798476202</v>
       </c>
       <c r="S7">
-        <v>0.1187732951992316</v>
+        <v>0.05135685134454394</v>
       </c>
       <c r="T7">
-        <v>0.1187732951992316</v>
+        <v>0.05135685134454396</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.27065179967619</v>
+        <v>556.449117</v>
       </c>
       <c r="H8">
-        <v>1.27065179967619</v>
+        <v>1669.347351</v>
       </c>
       <c r="I8">
-        <v>0.002176734011350831</v>
+        <v>0.9414179586876754</v>
       </c>
       <c r="J8">
-        <v>0.002176734011350831</v>
+        <v>0.9414179586876756</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>5.25060678235267</v>
+        <v>0.1349966666666667</v>
       </c>
       <c r="N8">
-        <v>5.25060678235267</v>
+        <v>0.40499</v>
       </c>
       <c r="O8">
-        <v>0.500568860057849</v>
+        <v>0.0110108441004602</v>
       </c>
       <c r="P8">
-        <v>0.500568860057849</v>
+        <v>0.0110108441004602</v>
       </c>
       <c r="Q8">
-        <v>6.671692957388429</v>
+        <v>75.11877596461001</v>
       </c>
       <c r="R8">
-        <v>6.671692957388429</v>
+        <v>676.06898368149</v>
       </c>
       <c r="S8">
-        <v>0.001089605262711034</v>
+        <v>0.01036580637648348</v>
       </c>
       <c r="T8">
-        <v>0.001089605262711034</v>
+        <v>0.01036580637648348</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.27065179967619</v>
+        <v>556.449117</v>
       </c>
       <c r="H9">
-        <v>1.27065179967619</v>
+        <v>1669.347351</v>
       </c>
       <c r="I9">
-        <v>0.002176734011350831</v>
+        <v>0.9414179586876754</v>
       </c>
       <c r="J9">
-        <v>0.002176734011350831</v>
+        <v>0.9414179586876756</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.93137354218707</v>
+        <v>5.254872</v>
       </c>
       <c r="N9">
-        <v>3.93137354218707</v>
+        <v>15.764616</v>
       </c>
       <c r="O9">
-        <v>0.37479919065514</v>
+        <v>0.4286074448248611</v>
       </c>
       <c r="P9">
-        <v>0.37479919065514</v>
+        <v>0.4286074448248611</v>
       </c>
       <c r="Q9">
-        <v>4.995406866579359</v>
+        <v>2924.068884348024</v>
       </c>
       <c r="R9">
-        <v>4.995406866579359</v>
+        <v>26316.61995913221</v>
       </c>
       <c r="S9">
-        <v>0.0008158381457258078</v>
+        <v>0.4034987457853612</v>
       </c>
       <c r="T9">
-        <v>0.0008158381457258078</v>
+        <v>0.4034987457853613</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.27065179967619</v>
+        <v>556.449117</v>
       </c>
       <c r="H10">
-        <v>1.27065179967619</v>
+        <v>1669.347351</v>
       </c>
       <c r="I10">
-        <v>0.002176734011350831</v>
+        <v>0.9414179586876754</v>
       </c>
       <c r="J10">
-        <v>0.002176734011350831</v>
+        <v>0.9414179586876756</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.30729937565151</v>
+        <v>4.640423333333334</v>
       </c>
       <c r="N10">
-        <v>1.30729937565151</v>
+        <v>13.92127</v>
       </c>
       <c r="O10">
-        <v>0.124631949287011</v>
+        <v>0.378490663103814</v>
       </c>
       <c r="P10">
-        <v>0.124631949287011</v>
+        <v>0.3784906631038139</v>
       </c>
       <c r="Q10">
-        <v>1.661122304387151</v>
+        <v>2582.15946633953</v>
       </c>
       <c r="R10">
-        <v>1.661122304387151</v>
+        <v>23239.43519705577</v>
       </c>
       <c r="S10">
-        <v>0.0002712906029139888</v>
+        <v>0.3563179074415372</v>
       </c>
       <c r="T10">
-        <v>0.0002712906029139888</v>
+        <v>0.3563179074415372</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.3080690392176</v>
+        <v>556.449117</v>
       </c>
       <c r="H11">
-        <v>19.3080690392176</v>
+        <v>1669.347351</v>
       </c>
       <c r="I11">
-        <v>0.03307635544362772</v>
+        <v>0.9414179586876754</v>
       </c>
       <c r="J11">
-        <v>0.03307635544362772</v>
+        <v>0.9414179586876756</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.25060678235267</v>
+        <v>1.561211666666667</v>
       </c>
       <c r="N11">
-        <v>5.25060678235267</v>
+        <v>4.683635</v>
       </c>
       <c r="O11">
-        <v>0.500568860057849</v>
+        <v>0.1273383905984319</v>
       </c>
       <c r="P11">
-        <v>0.500568860057849</v>
+        <v>0.1273383905984319</v>
       </c>
       <c r="Q11">
-        <v>101.3790782514495</v>
+        <v>868.734853366765</v>
       </c>
       <c r="R11">
-        <v>101.3790782514495</v>
+        <v>7818.613680300884</v>
       </c>
       <c r="S11">
-        <v>0.01655699353928496</v>
+        <v>0.1198786477397496</v>
       </c>
       <c r="T11">
-        <v>0.01655699353928496</v>
+        <v>0.1198786477397496</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>19.3080690392176</v>
+        <v>0.3432</v>
       </c>
       <c r="H12">
-        <v>19.3080690392176</v>
+        <v>1.0296</v>
       </c>
       <c r="I12">
-        <v>0.03307635544362772</v>
+        <v>0.0005806364563277943</v>
       </c>
       <c r="J12">
-        <v>0.03307635544362772</v>
+        <v>0.0005806364563277945</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>3.93137354218707</v>
+        <v>0.668834</v>
       </c>
       <c r="N12">
-        <v>3.93137354218707</v>
+        <v>2.006502</v>
       </c>
       <c r="O12">
-        <v>0.37479919065514</v>
+        <v>0.05455265737243289</v>
       </c>
       <c r="P12">
-        <v>0.37479919065514</v>
+        <v>0.05455265737243289</v>
       </c>
       <c r="Q12">
-        <v>75.9072317715014</v>
+        <v>0.2295438288</v>
       </c>
       <c r="R12">
-        <v>75.9072317715014</v>
+        <v>2.0658944592</v>
       </c>
       <c r="S12">
-        <v>0.0123969912500934</v>
+        <v>3.167526165999376E-05</v>
       </c>
       <c r="T12">
-        <v>0.0123969912500934</v>
+        <v>3.167526165999377E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3432</v>
+      </c>
+      <c r="H13">
+        <v>1.0296</v>
+      </c>
+      <c r="I13">
+        <v>0.0005806364563277943</v>
+      </c>
+      <c r="J13">
+        <v>0.0005806364563277945</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1349966666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.40499</v>
+      </c>
+      <c r="O13">
+        <v>0.0110108441004602</v>
+      </c>
+      <c r="P13">
+        <v>0.0110108441004602</v>
+      </c>
+      <c r="Q13">
+        <v>0.046330856</v>
+      </c>
+      <c r="R13">
+        <v>0.4169777040000001</v>
+      </c>
+      <c r="S13">
+        <v>6.393297499669012E-06</v>
+      </c>
+      <c r="T13">
+        <v>6.393297499669013E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.3432</v>
+      </c>
+      <c r="H14">
+        <v>1.0296</v>
+      </c>
+      <c r="I14">
+        <v>0.0005806364563277943</v>
+      </c>
+      <c r="J14">
+        <v>0.0005806364563277945</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.254872</v>
+      </c>
+      <c r="N14">
+        <v>15.764616</v>
+      </c>
+      <c r="O14">
+        <v>0.4286074448248611</v>
+      </c>
+      <c r="P14">
+        <v>0.4286074448248611</v>
+      </c>
+      <c r="Q14">
+        <v>1.8034720704</v>
+      </c>
+      <c r="R14">
+        <v>16.2312486336</v>
+      </c>
+      <c r="S14">
+        <v>0.0002488651079188179</v>
+      </c>
+      <c r="T14">
+        <v>0.0002488651079188181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.3432</v>
+      </c>
+      <c r="H15">
+        <v>1.0296</v>
+      </c>
+      <c r="I15">
+        <v>0.0005806364563277943</v>
+      </c>
+      <c r="J15">
+        <v>0.0005806364563277945</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.640423333333334</v>
+      </c>
+      <c r="N15">
+        <v>13.92127</v>
+      </c>
+      <c r="O15">
+        <v>0.378490663103814</v>
+      </c>
+      <c r="P15">
+        <v>0.3784906631038139</v>
+      </c>
+      <c r="Q15">
+        <v>1.592593288</v>
+      </c>
+      <c r="R15">
+        <v>14.333339592</v>
+      </c>
+      <c r="S15">
+        <v>0.0002197654773777556</v>
+      </c>
+      <c r="T15">
+        <v>0.0002197654773777556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3432</v>
+      </c>
+      <c r="H16">
+        <v>1.0296</v>
+      </c>
+      <c r="I16">
+        <v>0.0005806364563277943</v>
+      </c>
+      <c r="J16">
+        <v>0.0005806364563277945</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.561211666666667</v>
+      </c>
+      <c r="N16">
+        <v>4.683635</v>
+      </c>
+      <c r="O16">
+        <v>0.1273383905984319</v>
+      </c>
+      <c r="P16">
+        <v>0.1273383905984319</v>
+      </c>
+      <c r="Q16">
+        <v>0.535807844</v>
+      </c>
+      <c r="R16">
+        <v>4.822270596</v>
+      </c>
+      <c r="S16">
+        <v>7.393731187155799E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.393731187155802E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>19.3080690392176</v>
-      </c>
-      <c r="H13">
-        <v>19.3080690392176</v>
-      </c>
-      <c r="I13">
-        <v>0.03307635544362772</v>
-      </c>
-      <c r="J13">
-        <v>0.03307635544362772</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.30729937565151</v>
-      </c>
-      <c r="N13">
-        <v>1.30729937565151</v>
-      </c>
-      <c r="O13">
-        <v>0.124631949287011</v>
-      </c>
-      <c r="P13">
-        <v>0.124631949287011</v>
-      </c>
-      <c r="Q13">
-        <v>25.24142660000542</v>
-      </c>
-      <c r="R13">
-        <v>25.24142660000542</v>
-      </c>
-      <c r="S13">
-        <v>0.004122370654249361</v>
-      </c>
-      <c r="T13">
-        <v>0.004122370654249361</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.318524333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.955573</v>
+      </c>
+      <c r="I17">
+        <v>0.002230720560864318</v>
+      </c>
+      <c r="J17">
+        <v>0.002230720560864319</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.668834</v>
+      </c>
+      <c r="N17">
+        <v>2.006502</v>
+      </c>
+      <c r="O17">
+        <v>0.05455265737243289</v>
+      </c>
+      <c r="P17">
+        <v>0.05455265737243289</v>
+      </c>
+      <c r="Q17">
+        <v>0.8818739039606667</v>
+      </c>
+      <c r="R17">
+        <v>7.936865135646</v>
+      </c>
+      <c r="S17">
+        <v>0.0001216917344504725</v>
+      </c>
+      <c r="T17">
+        <v>0.0001216917344504725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.318524333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.955573</v>
+      </c>
+      <c r="I18">
+        <v>0.002230720560864318</v>
+      </c>
+      <c r="J18">
+        <v>0.002230720560864319</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1349966666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.40499</v>
+      </c>
+      <c r="O18">
+        <v>0.0110108441004602</v>
+      </c>
+      <c r="P18">
+        <v>0.0110108441004602</v>
+      </c>
+      <c r="Q18">
+        <v>0.1779963899188889</v>
+      </c>
+      <c r="R18">
+        <v>1.60196750927</v>
+      </c>
+      <c r="S18">
+        <v>2.456211632736815E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.456211632736816E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.318524333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.955573</v>
+      </c>
+      <c r="I19">
+        <v>0.002230720560864318</v>
+      </c>
+      <c r="J19">
+        <v>0.002230720560864319</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.254872</v>
+      </c>
+      <c r="N19">
+        <v>15.764616</v>
+      </c>
+      <c r="O19">
+        <v>0.4286074448248611</v>
+      </c>
+      <c r="P19">
+        <v>0.4286074448248611</v>
+      </c>
+      <c r="Q19">
+        <v>6.928676600551999</v>
+      </c>
+      <c r="R19">
+        <v>62.358089404968</v>
+      </c>
+      <c r="S19">
+        <v>0.0009561034397103366</v>
+      </c>
+      <c r="T19">
+        <v>0.0009561034397103367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.318524333333333</v>
+      </c>
+      <c r="H20">
+        <v>3.955573</v>
+      </c>
+      <c r="I20">
+        <v>0.002230720560864318</v>
+      </c>
+      <c r="J20">
+        <v>0.002230720560864319</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.640423333333334</v>
+      </c>
+      <c r="N20">
+        <v>13.92127</v>
+      </c>
+      <c r="O20">
+        <v>0.378490663103814</v>
+      </c>
+      <c r="P20">
+        <v>0.3784906631038139</v>
+      </c>
+      <c r="Q20">
+        <v>6.118511081967777</v>
+      </c>
+      <c r="R20">
+        <v>55.06659973770999</v>
+      </c>
+      <c r="S20">
+        <v>0.0008443069042808476</v>
+      </c>
+      <c r="T20">
+        <v>0.0008443069042808476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.318524333333333</v>
+      </c>
+      <c r="H21">
+        <v>3.955573</v>
+      </c>
+      <c r="I21">
+        <v>0.002230720560864318</v>
+      </c>
+      <c r="J21">
+        <v>0.002230720560864319</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.561211666666667</v>
+      </c>
+      <c r="N21">
+        <v>4.683635</v>
+      </c>
+      <c r="O21">
+        <v>0.1273383905984319</v>
+      </c>
+      <c r="P21">
+        <v>0.1273383905984319</v>
+      </c>
+      <c r="Q21">
+        <v>2.058495571983888</v>
+      </c>
+      <c r="R21">
+        <v>18.526460147855</v>
+      </c>
+      <c r="S21">
+        <v>0.0002840563660952935</v>
+      </c>
+      <c r="T21">
+        <v>0.0002840563660952936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>21.927094</v>
+      </c>
+      <c r="H22">
+        <v>65.781282</v>
+      </c>
+      <c r="I22">
+        <v>0.03709694101901644</v>
+      </c>
+      <c r="J22">
+        <v>0.03709694101901645</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.668834</v>
+      </c>
+      <c r="N22">
+        <v>2.006502</v>
+      </c>
+      <c r="O22">
+        <v>0.05455265737243289</v>
+      </c>
+      <c r="P22">
+        <v>0.05455265737243289</v>
+      </c>
+      <c r="Q22">
+        <v>14.665585988396</v>
+      </c>
+      <c r="R22">
+        <v>131.990273895564</v>
+      </c>
+      <c r="S22">
+        <v>0.002023736712975755</v>
+      </c>
+      <c r="T22">
+        <v>0.002023736712975756</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>21.927094</v>
+      </c>
+      <c r="H23">
+        <v>65.781282</v>
+      </c>
+      <c r="I23">
+        <v>0.03709694101901644</v>
+      </c>
+      <c r="J23">
+        <v>0.03709694101901645</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1349966666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.40499</v>
+      </c>
+      <c r="O23">
+        <v>0.0110108441004602</v>
+      </c>
+      <c r="P23">
+        <v>0.0110108441004602</v>
+      </c>
+      <c r="Q23">
+        <v>2.960084599686667</v>
+      </c>
+      <c r="R23">
+        <v>26.64076139718</v>
+      </c>
+      <c r="S23">
+        <v>0.0004084686341643573</v>
+      </c>
+      <c r="T23">
+        <v>0.0004084686341643573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>21.927094</v>
+      </c>
+      <c r="H24">
+        <v>65.781282</v>
+      </c>
+      <c r="I24">
+        <v>0.03709694101901644</v>
+      </c>
+      <c r="J24">
+        <v>0.03709694101901645</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.254872</v>
+      </c>
+      <c r="N24">
+        <v>15.764616</v>
+      </c>
+      <c r="O24">
+        <v>0.4286074448248611</v>
+      </c>
+      <c r="P24">
+        <v>0.4286074448248611</v>
+      </c>
+      <c r="Q24">
+        <v>115.224072301968</v>
+      </c>
+      <c r="R24">
+        <v>1037.016650717712</v>
+      </c>
+      <c r="S24">
+        <v>0.01590002510097921</v>
+      </c>
+      <c r="T24">
+        <v>0.01590002510097922</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>21.927094</v>
+      </c>
+      <c r="H25">
+        <v>65.781282</v>
+      </c>
+      <c r="I25">
+        <v>0.03709694101901644</v>
+      </c>
+      <c r="J25">
+        <v>0.03709694101901645</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.640423333333334</v>
+      </c>
+      <c r="N25">
+        <v>13.92127</v>
+      </c>
+      <c r="O25">
+        <v>0.378490663103814</v>
+      </c>
+      <c r="P25">
+        <v>0.3784906631038139</v>
+      </c>
+      <c r="Q25">
+        <v>101.7509986297933</v>
+      </c>
+      <c r="R25">
+        <v>915.7589876681401</v>
+      </c>
+      <c r="S25">
+        <v>0.01404084580541061</v>
+      </c>
+      <c r="T25">
+        <v>0.01404084580541061</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>21.927094</v>
+      </c>
+      <c r="H26">
+        <v>65.781282</v>
+      </c>
+      <c r="I26">
+        <v>0.03709694101901644</v>
+      </c>
+      <c r="J26">
+        <v>0.03709694101901645</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.561211666666667</v>
+      </c>
+      <c r="N26">
+        <v>4.683635</v>
+      </c>
+      <c r="O26">
+        <v>0.1273383905984319</v>
+      </c>
+      <c r="P26">
+        <v>0.1273383905984319</v>
+      </c>
+      <c r="Q26">
+        <v>34.23283496889667</v>
+      </c>
+      <c r="R26">
+        <v>308.09551472007</v>
+      </c>
+      <c r="S26">
+        <v>0.004723864765486504</v>
+      </c>
+      <c r="T26">
+        <v>0.004723864765486505</v>
       </c>
     </row>
   </sheetData>
